--- a/wormgear/expdata/10000.xlsx
+++ b/wormgear/expdata/10000.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wormgear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3E2883-E8F0-4642-9376-77C6F88BA3B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524E3D97-CB7D-824E-A105-130DEA9E79E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -478,7 +478,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -556,18 +556,18 @@
         <v>0.2</v>
       </c>
       <c r="G2" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="H2" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" s="4">
         <f>H2/F2</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J2" s="4">
-        <f>I2/G2</f>
-        <v>1</v>
+        <f>I2/SQRT(G2)</f>
+        <v>2.2360679774997898</v>
       </c>
       <c r="K2" s="1">
         <v>0.1</v>

--- a/wormgear/expdata/10000.xlsx
+++ b/wormgear/expdata/10000.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tug83224/Desktop/wormgear/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{524E3D97-CB7D-824E-A105-130DEA9E79E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BF1303-21F8-614F-BF32-45AD2BA083BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="30720" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>hadron</t>
   </si>
   <si>
-    <t>A_LTcos(phi_h-phi-S)</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>qT/Q</t>
+  </si>
+  <si>
+    <t>A_LTcos(phi_h-phi_S)</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -502,25 +502,25 @@
         <v>7</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>5</v>
@@ -541,13 +541,13 @@
         <v>6</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4">
         <v>0.2</v>
